--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VicAR Corp\102 VicAR Software - VicSoft\2021\VengaElLiquido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8627AFA8-2314-42EA-AB61-D3CA5E644FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419A1A0-015B-478F-8B97-DB9CE38ED58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4927E2A0-3FB0-4217-910E-449084CD3966}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Fecha Nacimiento</t>
   </si>
   <si>
-    <t>1988-01-06</t>
+    <t>1954-02-25</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VicAR Corp\102 VicAR Software - VicSoft\2021\VengaElLiquido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419A1A0-015B-478F-8B97-DB9CE38ED58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32509CD-7C14-4BCC-B8DE-0CC11ED2C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4927E2A0-3FB0-4217-910E-449084CD3966}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CI</t>
   </si>
@@ -44,18 +44,27 @@
   <si>
     <t>1954-02-25</t>
   </si>
+  <si>
+    <t>2759464 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,9 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03C33F2-12BC-4DCD-8270-E367E10F7820}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -419,6 +430,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3">
+        <v>22085</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
